--- a/data/trans_camb/P68-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P68-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.253512852780725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-4.315895325121821</v>
+        <v>-4.315895325121824</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.081559965596166</v>
@@ -655,7 +655,7 @@
         <v>0.1794170635154718</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.009283089780923</v>
+        <v>-3.009283089780926</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.4611200639171809</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.296921083952557</v>
+        <v>-6.226671339195038</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.070943732264865</v>
+        <v>-7.248519362789632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.78468054612671</v>
+        <v>-9.801211176124001</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.212678919371091</v>
+        <v>-7.19278572184255</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.488290130617038</v>
+        <v>-7.766870300228962</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.28611662319061</v>
+        <v>-9.713575134854922</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.211809766593837</v>
+        <v>-4.727616714070973</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.473971841256196</v>
+        <v>-5.559851543142478</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.059266416728086</v>
+        <v>-7.682142192232794</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.201926121993825</v>
+        <v>5.996823989149775</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.801852575898027</v>
+        <v>5.039054201782795</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.080073375244323</v>
+        <v>1.816323602744538</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.191790946769734</v>
+        <v>8.884791891324411</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.791729965721834</v>
+        <v>7.533487967928383</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.371314847006131</v>
+        <v>3.533089445253854</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.596518053896522</v>
+        <v>5.602505961748186</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.475842537297526</v>
+        <v>4.853954200569359</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6898006877095675</v>
+        <v>0.8548671770847446</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.06844832258702727</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2356703362158968</v>
+        <v>-0.2356703362158969</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.0503440306110998</v>
@@ -760,7 +760,7 @@
         <v>0.008351435357352298</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1400749332524415</v>
+        <v>-0.1400749332524416</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.02362827855072094</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2950402963969899</v>
+        <v>-0.3016973242242117</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3519972814478724</v>
+        <v>-0.3424352692203894</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.478411953571253</v>
+        <v>-0.4718496291554709</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2960380227456539</v>
+        <v>-0.288071789178898</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3064615858539871</v>
+        <v>-0.307431123142802</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3835582471385719</v>
+        <v>-0.3734700963201929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1959301349500386</v>
+        <v>-0.2197859623807325</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2586561105545361</v>
+        <v>-0.253165493748107</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3604575894953264</v>
+        <v>-0.3413188384550563</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3878470234840429</v>
+        <v>0.3929351928543257</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3588176313901859</v>
+        <v>0.3253714814361547</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.08085430491238653</v>
+        <v>0.113786026179401</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.518697290698566</v>
+        <v>0.5008029897187143</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4160302525835181</v>
+        <v>0.4211985360270492</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2052223595851457</v>
+        <v>0.2237864696284904</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3261705139474808</v>
+        <v>0.327445101944717</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2583960031614479</v>
+        <v>0.2837860979139694</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.04750286504903471</v>
+        <v>0.05108940874778031</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-2.253343498918619</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.8905354178708663</v>
+        <v>-0.8905354178708691</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.648040670648271</v>
@@ -878,7 +878,7 @@
         <v>-2.852311673346186</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.0492377831433688</v>
+        <v>0.04923778314337157</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.07836371158662</v>
+        <v>-7.613206102310286</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.924582121232262</v>
+        <v>-9.328782778563086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.89143857759039</v>
+        <v>-5.645687277601611</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.12195471757443</v>
+        <v>-9.464126509985821</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.741401644299394</v>
+        <v>-9.433936904012777</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.047780379318801</v>
+        <v>-7.68239709368696</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.621232587778447</v>
+        <v>-6.747323329551158</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.954158419943501</v>
+        <v>-7.957802376992369</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.36509739429623</v>
+        <v>-4.876003538970831</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.126060740433526</v>
+        <v>5.576221973397438</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.047143538808102</v>
+        <v>3.166452701761941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.731729776697645</v>
+        <v>7.60079783358175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.880461467569289</v>
+        <v>6.138324558508709</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.720290674881787</v>
+        <v>5.951195717313452</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.71236316164722</v>
+        <v>5.728455958931224</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.687890611572833</v>
+        <v>3.194272345892726</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.825621452539656</v>
+        <v>1.718918163898024</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.359494990831403</v>
+        <v>4.274060035457725</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1261016973213217</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.04983617800488944</v>
+        <v>-0.04983617800488959</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.09867203082497886</v>
@@ -983,7 +983,7 @@
         <v>-0.1707745387400869</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.0029479806794847</v>
+        <v>0.002947980679484866</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4289924943672367</v>
+        <v>-0.412731884190315</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5270468511654244</v>
+        <v>-0.4973805109477851</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3052475314444422</v>
+        <v>-0.2941879916195373</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4681313447415047</v>
+        <v>-0.4484297528566854</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4670743575799145</v>
+        <v>-0.4518392680921879</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3291391556915527</v>
+        <v>-0.3488401366118744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3424521695494647</v>
+        <v>-0.3568117677790601</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.415213684287752</v>
+        <v>-0.4118778649501915</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2262005922902894</v>
+        <v>-0.2577076244866855</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4214431501272622</v>
+        <v>0.4426479390306871</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.239258785604603</v>
+        <v>0.267710090800366</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5492260769979074</v>
+        <v>0.6547474278038387</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.395187208135331</v>
+        <v>0.4182462188821817</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3206305053752625</v>
+        <v>0.3902099425418571</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4095393819109699</v>
+        <v>0.4073979039655462</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2519933813067631</v>
+        <v>0.2327199202499872</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.135957038543379</v>
+        <v>0.1214578680249703</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.299151223503513</v>
+        <v>0.3098778671417035</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.38768342875881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.368112806365764</v>
+        <v>-3.368112806365767</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.608918217859406</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.031366914890106</v>
+        <v>-4.405391765275009</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.992317386659487</v>
+        <v>-3.957095724278378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.43530719904567</v>
+        <v>-11.36325798436505</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.89873290263786</v>
+        <v>-13.81047372211128</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-29.13230592040812</v>
+        <v>-29.24521600828282</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-18.30589731010779</v>
+        <v>-18.25098817103529</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.733425094515173</v>
+        <v>-3.794049592945623</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.870611970973236</v>
+        <v>-6.561357858398864</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.647883895805071</v>
+        <v>-9.368277040231684</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.272027255254363</v>
+        <v>9.520853483605917</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.25614896092461</v>
+        <v>11.78002557847061</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.367183174934933</v>
+        <v>3.857177509531281</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.14192239094412</v>
+        <v>15.54038685059445</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.040796425000158</v>
+        <v>1.356305204855827</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.136550957937</v>
+        <v>10.26380462732797</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.086440016791544</v>
+        <v>8.845561535521444</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.802685993392364</v>
+        <v>7.930207640330276</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.54288252062868</v>
+        <v>4.030294395503435</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1657504719003189</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1272348600652248</v>
+        <v>-0.1272348600652249</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.05525589728993859</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1727469923110939</v>
+        <v>-0.1515770436421654</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1056891477931172</v>
+        <v>-0.1251768153775597</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3590233433378038</v>
+        <v>-0.3779849127078873</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.361674017739148</v>
+        <v>-0.3588133106327845</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7825057859325772</v>
+        <v>-0.7818147539866085</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4900522267640606</v>
+        <v>-0.4710058969814752</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1256590134033546</v>
+        <v>-0.1276761077313958</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2327101188157569</v>
+        <v>-0.2248327175343995</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3227970493230517</v>
+        <v>-0.3145568799693567</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.408532733649821</v>
+        <v>0.4173965970611236</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5066031609747843</v>
+        <v>0.5041087145918727</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1921744865700507</v>
+        <v>0.1730328470639776</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.00199515590158</v>
+        <v>0.7985522747666275</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06605025010458011</v>
+        <v>0.08696886857517112</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5610822141833592</v>
+        <v>0.5459233010574226</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3847582887206139</v>
+        <v>0.3788433019804858</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2924492712436437</v>
+        <v>0.33215976416356</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1500926317629899</v>
+        <v>0.1639183096982957</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>6.632789636942782</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.728350316389293</v>
+        <v>7.728350316389299</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.8192590511862219</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.862361107476826</v>
+        <v>-5.482915131406477</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.034227033168027</v>
+        <v>-5.268963332628613</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.826321844885578</v>
+        <v>-8.450777174978006</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3590904506304061</v>
+        <v>-0.4006479758453652</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.292898477861543</v>
+        <v>-0.1368419247307848</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.20301463596525</v>
+        <v>1.742488281024279</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.310110660114435</v>
+        <v>-3.323226281491951</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.007081185355968</v>
+        <v>-3.073053929414245</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.013794460651904</v>
+        <v>-4.132867071824323</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.9198541280049</v>
+        <v>5.557037220174454</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.379600043131686</v>
+        <v>4.86243954138281</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.572327542652469</v>
+        <v>1.545988869764183</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.53531680604985</v>
+        <v>12.85629039398504</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.91365112680769</v>
+        <v>13.14263116329471</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.55257271960495</v>
+        <v>12.88262923249464</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.041738955486709</v>
+        <v>5.448196533147353</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.259006915677888</v>
+        <v>5.153044858176012</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.936015341413535</v>
+        <v>3.619528014397662</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.4026757963950652</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4691871427881618</v>
+        <v>0.4691871427881621</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.03284465511713137</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1973979009332524</v>
+        <v>-0.1805782611058745</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1700100980629426</v>
+        <v>-0.1726765595650605</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2918127495892042</v>
+        <v>-0.2799321085761292</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02144067675476221</v>
+        <v>-0.03696363540642287</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.001917628644452853</v>
+        <v>-0.007495990739694727</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.107944195517602</v>
+        <v>0.08752030388357937</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1270485529557787</v>
+        <v>-0.1239754115429421</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.111861357685419</v>
+        <v>-0.1159800213087147</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1506672014721781</v>
+        <v>-0.155530333394165</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1877499674516957</v>
+        <v>0.2108784357619223</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2060309773514262</v>
+        <v>0.1811982598000627</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.05830675493331185</v>
+        <v>0.06028025684899688</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9080812043016452</v>
+        <v>0.9421479067869446</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9169218375782269</v>
+        <v>0.9952580500976723</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9851318035059323</v>
+        <v>0.9517466503750049</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2125285852867833</v>
+        <v>0.2326429074001334</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2286666041515872</v>
+        <v>0.2290578369051109</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1658239115921623</v>
+        <v>0.1597644387622864</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-7.382590913170628</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.776387179766398</v>
+        <v>1.776387179766387</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-7.490048615529993</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-18.55512563993592</v>
+        <v>-19.76394767580114</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.13355442292581</v>
+        <v>-9.538909894030514</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-21.97389098684791</v>
+        <v>-22.42896994524041</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-16.49651560228791</v>
+        <v>-16.06028091325171</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-15.99589305910692</v>
+        <v>-16.45437969750629</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.192630231398414</v>
+        <v>-7.657726663776647</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-14.64758845227974</v>
+        <v>-14.32820666816174</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.53059868523914</v>
+        <v>-10.36180757932303</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-12.17336718038991</v>
+        <v>-11.58925767278508</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.589120611858875</v>
+        <v>1.765432234645326</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.49696995943025</v>
+        <v>10.3665173465987</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-3.842853446640909</v>
+        <v>-4.464932219343648</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.735453875642609</v>
+        <v>3.540801748546487</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.502373433261297</v>
+        <v>0.9433852915731489</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.637828591703162</v>
+        <v>8.680215986639958</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.5076862568378121</v>
+        <v>-0.2217897830101523</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.596672492116039</v>
+        <v>3.145005447587453</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.4719477382659026</v>
+        <v>0.850414625695776</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2347333211408737</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05648115509078858</v>
+        <v>0.05648115509078823</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2262561169569609</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4686474855005283</v>
+        <v>-0.492581891026756</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2522348496158497</v>
+        <v>-0.2432103163934507</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5492539953460883</v>
+        <v>-0.5561765031690796</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4578757578660136</v>
+        <v>-0.4558014882396644</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4426853634719123</v>
+        <v>-0.4427530770542003</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1672898843086415</v>
+        <v>-0.2002284818074651</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4088860829554973</v>
+        <v>-0.398005876297805</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2812333541512244</v>
+        <v>-0.2788017428194948</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3324543536781505</v>
+        <v>-0.3151214616010086</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.08629595101857242</v>
+        <v>0.0686437019882969</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3737346842545703</v>
+        <v>0.349118506946673</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1285092545464848</v>
+        <v>-0.1569703305175238</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1098141735762816</v>
+        <v>0.1433740509985077</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0626657040492925</v>
+        <v>0.04742667644802981</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3600933895419758</v>
+        <v>0.3265414206229608</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.01889072502574986</v>
+        <v>-0.01177982367560438</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.09676514668125402</v>
+        <v>0.1120445303185127</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.01725524705988312</v>
+        <v>0.02840484159306412</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.5427926378817116</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.891273893749501</v>
+        <v>1.891273893749498</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.6513730637376092</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.992473452194519</v>
+        <v>-4.612175000690648</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.141351635287915</v>
+        <v>-3.236267301130967</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.490567681004618</v>
+        <v>-7.185293795176201</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.039050241301536</v>
+        <v>-2.467397369093301</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.552798777321298</v>
+        <v>-4.222891380428688</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.456839287672846</v>
+        <v>-1.556241149239831</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.055983867685623</v>
+        <v>-2.956460063720713</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.948706715432537</v>
+        <v>-2.798666466055459</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.163811209187613</v>
+        <v>-4.022083380003478</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.369509441245481</v>
+        <v>1.408965687145168</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.221715323398797</v>
+        <v>2.585849452717821</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.317494033999638</v>
+        <v>-1.226957760930904</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.974249893606736</v>
+        <v>5.097832329358718</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.982529557728387</v>
+        <v>3.385926856697433</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.818613293673487</v>
+        <v>5.015215929816222</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.007344730984464</v>
+        <v>1.807310093673806</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.66980994488422</v>
+        <v>1.812810263155772</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.1906593938668514</v>
+        <v>0.3142807071351089</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.02509876872096265</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08745263427386031</v>
+        <v>0.08745263427386019</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.0273389811778905</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1858884482513067</v>
+        <v>-0.1769635221896157</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1212034827959469</v>
+        <v>-0.124631732118195</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2846814309611321</v>
+        <v>-0.2743616284667419</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.12972714333697</v>
+        <v>-0.1052375136216352</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1922547439857042</v>
+        <v>-0.1826892073932379</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.05821518339492974</v>
+        <v>-0.06701858364948352</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1223893304672966</v>
+        <v>-0.119659126617752</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1194850789150975</v>
+        <v>-0.1137242575239641</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1663628570147571</v>
+        <v>-0.1608384328092392</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.05801565959573158</v>
+        <v>0.05864556725217101</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1384183322722586</v>
+        <v>0.1080095055503281</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.06094609290511893</v>
+        <v>-0.0497341917719174</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2444281489259325</v>
+        <v>0.2542705289009474</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1506360682160299</v>
+        <v>0.1663673759205299</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2481806126489629</v>
+        <v>0.2508268363673404</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09018730677258341</v>
+        <v>0.07764014417581419</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.07370572799016613</v>
+        <v>0.07767288771783239</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.01181291126847994</v>
+        <v>0.0139953436415978</v>
       </c>
     </row>
     <row r="40">
